--- a/test_data/p_project_not_chosen.xlsx
+++ b/test_data/p_project_not_chosen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferestigene/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferestigene/Desktop/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B15F07C-AC64-5547-8228-A1476C0CFC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666CA2DC-B5CD-494E-9A0D-1C975B384711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="500" windowWidth="15280" windowHeight="15800" xr2:uid="{FB8F477C-12CF-364F-B3C5-D5894B2935D6}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="13780" windowHeight="15800" xr2:uid="{FB8F477C-12CF-364F-B3C5-D5894B2935D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects Preferences" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>S3</t>
   </si>
@@ -77,16 +77,19 @@
     <t>P1</t>
   </si>
   <si>
-    <t>3rd Preference</t>
-  </si>
-  <si>
-    <t>2nd Preference</t>
-  </si>
-  <si>
-    <t>1st Preference</t>
-  </si>
-  <si>
-    <t>Project</t>
+    <t>max_student</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>1st_choice</t>
+  </si>
+  <si>
+    <t>2nd_choice</t>
+  </si>
+  <si>
+    <t>3rd_choice</t>
   </si>
 </sst>
 </file>
@@ -153,11 +156,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -474,86 +484,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B7C2BF-EE8A-154C-A7AC-1404415379E1}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="2" width="12.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
